--- a/writing-test.xlsx
+++ b/writing-test.xlsx
@@ -3,7 +3,10 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Topics" sheetId="1" r:id="rId1"/>
+    <sheet name="Exams" sheetId="1" r:id="rId1"/>
+    <sheet name="Parts" sheetId="2" r:id="rId2"/>
+    <sheet name="Questions" sheetId="3" r:id="rId3"/>
+    <sheet name="Answers" sheetId="4" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
@@ -397,84 +400,346 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Topic</v>
+        <v>title</v>
       </c>
       <c r="B1" t="str">
-        <v>Vietnamese</v>
+        <v>description</v>
       </c>
       <c r="C1" t="str">
-        <v>Type</v>
+        <v>difficulty</v>
       </c>
       <c r="D1" t="str">
-        <v>Words</v>
+        <v>estimated_time</v>
+      </c>
+      <c r="E1" t="str">
+        <v>exam_type</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Write an email to your colleague about a project update.</v>
+        <v>Writing Test - Assessment</v>
       </c>
       <c r="B2" t="str">
-        <v>Viết email cho đồng nghiệp về cập nhật dự án.</v>
+        <v>Đề thi Writing - 8 câu hỏi theo chuẩn đánh giá năng lực viết</v>
       </c>
       <c r="C2" t="str">
-        <v>Business Email</v>
-      </c>
-      <c r="D2" t="str">
-        <v>150-200</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Describe the advantages and disadvantages of working from home.</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Mô tả ưu và nhược điểm của làm việc tại nhà.</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Essay</v>
-      </c>
-      <c r="D3" t="str">
-        <v>250-300</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Write a letter to a friend describing your new job.</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Viết thư cho bạn mô tả công việc mới của bạn.</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Personal Letter</v>
-      </c>
-      <c r="D4" t="str">
-        <v>150-200</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Explain how technology has changed the way we communicate.</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Giải thích công nghệ đã thay đổi cách chúng ta giao tiếp như thế nào.</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Essay</v>
-      </c>
-      <c r="D5" t="str">
-        <v>250-300</v>
+        <v>medium</v>
+      </c>
+      <c r="D2">
+        <v>60</v>
+      </c>
+      <c r="E2" t="str">
+        <v>writing</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>part_number</v>
+      </c>
+      <c r="B1" t="str">
+        <v>title</v>
+      </c>
+      <c r="C1" t="str">
+        <v>description</v>
+      </c>
+      <c r="D1" t="str">
+        <v>instruction</v>
+      </c>
+      <c r="E1" t="str">
+        <v>difficulty_level</v>
+      </c>
+      <c r="F1" t="str">
+        <v>time_limit</v>
+      </c>
+      <c r="G1" t="str">
+        <v>type</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Part 1 - Complete Sentences</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Hoàn thành câu theo yêu cầu</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Complete the sentences based on the given prompts</v>
+      </c>
+      <c r="E2" t="str">
+        <v>medium</v>
+      </c>
+      <c r="F2">
+        <v>25</v>
+      </c>
+      <c r="G2" t="str">
+        <v>reading</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Part 2 - Write Essays</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Viết bài luận theo chủ đề</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Write essays on the given topics</v>
+      </c>
+      <c r="E3" t="str">
+        <v>hard</v>
+      </c>
+      <c r="F3">
+        <v>35</v>
+      </c>
+      <c r="G3" t="str">
+        <v>reading</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:G3"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>part_number</v>
+      </c>
+      <c r="B1" t="str">
+        <v>question_number</v>
+      </c>
+      <c r="C1" t="str">
+        <v>content</v>
+      </c>
+      <c r="D1" t="str">
+        <v>question_type</v>
+      </c>
+      <c r="E1" t="str">
+        <v>vietnamese_translation</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Complete the sentence: "If I had more time, I would..." (Write at least 50 words explaining what you would do and why)</v>
+      </c>
+      <c r="D2" t="str">
+        <v>essay</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Hoàn thành câu: "Nếu tôi có nhiều thời gian hơn, tôi sẽ..." (Viết ít nhất 50 từ giải thích bạn sẽ làm gì và tại sao)</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Describe your ideal workplace in 3-4 sentences. Include details about the environment, colleagues, and work culture.</v>
+      </c>
+      <c r="D3" t="str">
+        <v>essay</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Mô tả nơi làm việc lý tưởng của bạn trong 3-4 câu. Bao gồm chi tiết về môi trường, đồng nghiệp và văn hóa làm việc.</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Write instructions for a friend on how to prepare your favorite dish. Use sequence words and be specific.</v>
+      </c>
+      <c r="D4" t="str">
+        <v>essay</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Viết hướng dẫn cho bạn về cách chuẩn bị món ăn yêu thích của bạn. Sử dụng từ nối và cụ thể.</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Compare two different ways of learning (online vs traditional classroom). Write 4-5 sentences.</v>
+      </c>
+      <c r="D5" t="str">
+        <v>essay</v>
+      </c>
+      <c r="E5" t="str">
+        <v>So sánh hai cách học khác nhau (trực tuyến vs lớp học truyền thống). Viết 4-5 câu.</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Write a short email (60-80 words) to your manager requesting time off for a family emergency.</v>
+      </c>
+      <c r="D6" t="str">
+        <v>essay</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Viết email ngắn (60-80 từ) cho quản lý để xin nghỉ phép vì việc khẩn cấp gia đình.</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Essay Topic: "The role of social media in modern communication" - Write a 150-200 word essay discussing both positive and negative aspects. Include your personal opinion with supporting examples.</v>
+      </c>
+      <c r="D7" t="str">
+        <v>essay</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Chủ đề luận: "Vai trò của mạng xã hội trong giao tiếp hiện đại" - Viết bài luận 150-200 từ thảo luận cả mặt tích cực và tiêu cực. Bao gồm ý kiến cá nhân với ví dụ hỗ trợ.</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Essay Topic: "Should all students be required to learn coding in school?" - Write a 180-220 word argumentative essay. Present your position clearly with at least 3 supporting points and relevant examples.</v>
+      </c>
+      <c r="D8" t="str">
+        <v>essay</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Chủ đề luận: "Có nên bắt buộc tất cả học sinh học lập trình ở trường không?" - Viết bài luận lập luận 180-220 từ. Trình bày quan điểm rõ ràng với ít nhất 3 điểm hỗ trợ và ví dụ phù hợp.</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Essay Topic: "Describe a significant challenge you have overcome and explain how it changed you" - Write a 200-250 word personal narrative essay with specific details and reflection on the experience.</v>
+      </c>
+      <c r="D9" t="str">
+        <v>essay</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Chủ đề luận: "Mô tả một thách thức quan trọng mà bạn đã vượt qua và giải thích nó đã thay đổi bạn như thế nào" - Viết bài luận tự sự cá nhân 200-250 từ với chi tiết cụ thể và suy ngẫm về trải nghiệm.</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E9"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>question_number</v>
+      </c>
+      <c r="B1" t="str">
+        <v>content</v>
+      </c>
+      <c r="C1" t="str">
+        <v>is_correct</v>
+      </c>
+      <c r="D1" t="str">
+        <v>explanation</v>
+      </c>
+      <c r="E1" t="str">
+        <v>vietnamese_translation</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v/>
+      </c>
+      <c r="B2" t="str">
+        <v>(Không có đáp án chuẩn cho Writing Test - đánh giá dựa trên tiêu chí)</v>
+      </c>
+      <c r="C2" t="str">
+        <v/>
+      </c>
+      <c r="D2" t="str">
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/writing-test.xlsx
+++ b/writing-test.xlsx
@@ -1,44 +1,173 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trhuy\Documents\Edutic\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9AF700-D811-4E73-A299-1EDA233554E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Exams" sheetId="1" r:id="rId1"/>
     <sheet name="Parts" sheetId="2" r:id="rId2"/>
     <sheet name="Questions" sheetId="3" r:id="rId3"/>
     <sheet name="Answers" sheetId="4" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>difficulty</t>
+  </si>
+  <si>
+    <t>estimated_time</t>
+  </si>
+  <si>
+    <t>exam_type</t>
+  </si>
+  <si>
+    <t>Writing Test - Assessment</t>
+  </si>
+  <si>
+    <t>Đề thi Writing - 8 câu hỏi theo chuẩn đánh giá năng lực viết</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>writing</t>
+  </si>
+  <si>
+    <t>part_number</t>
+  </si>
+  <si>
+    <t>instruction</t>
+  </si>
+  <si>
+    <t>difficulty_level</t>
+  </si>
+  <si>
+    <t>time_limit</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Part 1 - Complete Sentences</t>
+  </si>
+  <si>
+    <t>Hoàn thành câu theo yêu cầu</t>
+  </si>
+  <si>
+    <t>Complete the sentences based on the given prompts</t>
+  </si>
+  <si>
+    <t>reading</t>
+  </si>
+  <si>
+    <t>Part 2 - Write Essays</t>
+  </si>
+  <si>
+    <t>Viết bài luận theo chủ đề</t>
+  </si>
+  <si>
+    <t>Write essays on the given topics</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>question_number</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>question_type</t>
+  </si>
+  <si>
+    <t>vietnamese_translation</t>
+  </si>
+  <si>
+    <t>Complete the sentence: "If I had more time, I would..." (Write at least 50 words explaining what you would do and why)</t>
+  </si>
+  <si>
+    <t>Hoàn thành câu: "Nếu tôi có nhiều thời gian hơn, tôi sẽ..." (Viết ít nhất 50 từ giải thích bạn sẽ làm gì và tại sao)</t>
+  </si>
+  <si>
+    <t>Describe your ideal workplace in 3-4 sentences. Include details about the environment, colleagues, and work culture.</t>
+  </si>
+  <si>
+    <t>Mô tả nơi làm việc lý tưởng của bạn trong 3-4 câu. Bao gồm chi tiết về môi trường, đồng nghiệp và văn hóa làm việc.</t>
+  </si>
+  <si>
+    <t>Write instructions for a friend on how to prepare your favorite dish. Use sequence words and be specific.</t>
+  </si>
+  <si>
+    <t>Viết hướng dẫn cho bạn về cách chuẩn bị món ăn yêu thích của bạn. Sử dụng từ nối và cụ thể.</t>
+  </si>
+  <si>
+    <t>Compare two different ways of learning (online vs traditional classroom). Write 4-5 sentences.</t>
+  </si>
+  <si>
+    <t>So sánh hai cách học khác nhau (trực tuyến vs lớp học truyền thống). Viết 4-5 câu.</t>
+  </si>
+  <si>
+    <t>Write a short email (60-80 words) to your manager requesting time off for a family emergency.</t>
+  </si>
+  <si>
+    <t>Viết email ngắn (60-80 từ) cho quản lý để xin nghỉ phép vì việc khẩn cấp gia đình.</t>
+  </si>
+  <si>
+    <t>Essay Topic: "The role of social media in modern communication" - Write a 150-200 word essay discussing both positive and negative aspects. Include your personal opinion with supporting examples.</t>
+  </si>
+  <si>
+    <t>Chủ đề luận: "Vai trò của mạng xã hội trong giao tiếp hiện đại" - Viết bài luận 150-200 từ thảo luận cả mặt tích cực và tiêu cực. Bao gồm ý kiến cá nhân với ví dụ hỗ trợ.</t>
+  </si>
+  <si>
+    <t>Essay Topic: "Should all students be required to learn coding in school?" - Write a 180-220 word argumentative essay. Present your position clearly with at least 3 supporting points and relevant examples.</t>
+  </si>
+  <si>
+    <t>Chủ đề luận: "Có nên bắt buộc tất cả học sinh học lập trình ở trường không?" - Viết bài luận lập luận 180-220 từ. Trình bày quan điểm rõ ràng với ít nhất 3 điểm hỗ trợ và ví dụ phù hợp.</t>
+  </si>
+  <si>
+    <t>Essay Topic: "Describe a significant challenge you have overcome and explain how it changed you" - Write a 200-250 word personal narrative essay with specific details and reflection on the experience.</t>
+  </si>
+  <si>
+    <t>Chủ đề luận: "Mô tả một thách thức quan trọng mà bạn đã vượt qua và giải thích nó đã thay đổi bạn như thế nào" - Viết bài luận tự sự cá nhân 200-250 từ với chi tiết cụ thể và suy ngẫm về trải nghiệm.</t>
+  </si>
+  <si>
+    <t>is_correct</t>
+  </si>
+  <si>
+    <t>explanation</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>(Không có đáp án chuẩn cho Writing Test - đánh giá dựa trên tiêu chí)</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -75,6 +204,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -399,347 +536,357 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>title</v>
-      </c>
-      <c r="B1" t="str">
-        <v>description</v>
-      </c>
-      <c r="C1" t="str">
-        <v>difficulty</v>
-      </c>
-      <c r="D1" t="str">
-        <v>estimated_time</v>
-      </c>
-      <c r="E1" t="str">
-        <v>exam_type</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Writing Test - Assessment</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Đề thi Writing - 8 câu hỏi theo chuẩn đánh giá năng lực viết</v>
-      </c>
-      <c r="C2" t="str">
-        <v>medium</v>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
       </c>
       <c r="D2">
         <v>60</v>
       </c>
-      <c r="E2" t="str">
-        <v>writing</v>
+      <c r="E2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
+    <ignoredError sqref="A1:E2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>part_number</v>
-      </c>
-      <c r="B1" t="str">
-        <v>title</v>
-      </c>
-      <c r="C1" t="str">
-        <v>description</v>
-      </c>
-      <c r="D1" t="str">
-        <v>instruction</v>
-      </c>
-      <c r="E1" t="str">
-        <v>difficulty_level</v>
-      </c>
-      <c r="F1" t="str">
-        <v>time_limit</v>
-      </c>
-      <c r="G1" t="str">
-        <v>type</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <v>Part 1 - Complete Sentences</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Hoàn thành câu theo yêu cầu</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Complete the sentences based on the given prompts</v>
-      </c>
-      <c r="E2" t="str">
-        <v>medium</v>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
       </c>
       <c r="F2">
         <v>25</v>
       </c>
-      <c r="G2" t="str">
-        <v>reading</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
-        <v>Part 2 - Write Essays</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Viết bài luận theo chủ đề</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Write essays on the given topics</v>
-      </c>
-      <c r="E3" t="str">
-        <v>hard</v>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
       </c>
       <c r="F3">
         <v>35</v>
       </c>
-      <c r="G3" t="str">
-        <v>reading</v>
+      <c r="G3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G3"/>
+    <ignoredError sqref="A1:G3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>part_number</v>
-      </c>
-      <c r="B1" t="str">
-        <v>question_number</v>
-      </c>
-      <c r="C1" t="str">
-        <v>content</v>
-      </c>
-      <c r="D1" t="str">
-        <v>question_type</v>
-      </c>
-      <c r="E1" t="str">
-        <v>vietnamese_translation</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="str">
-        <v>Complete the sentence: "If I had more time, I would..." (Write at least 50 words explaining what you would do and why)</v>
-      </c>
-      <c r="D2" t="str">
-        <v>essay</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Hoàn thành câu: "Nếu tôi có nhiều thời gian hơn, tôi sẽ..." (Viết ít nhất 50 từ giải thích bạn sẽ làm gì và tại sao)</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" t="str">
-        <v>Describe your ideal workplace in 3-4 sentences. Include details about the environment, colleagues, and work culture.</v>
-      </c>
-      <c r="D3" t="str">
-        <v>essay</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Mô tả nơi làm việc lý tưởng của bạn trong 3-4 câu. Bao gồm chi tiết về môi trường, đồng nghiệp và văn hóa làm việc.</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" t="str">
-        <v>Write instructions for a friend on how to prepare your favorite dish. Use sequence words and be specific.</v>
-      </c>
-      <c r="D4" t="str">
-        <v>essay</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Viết hướng dẫn cho bạn về cách chuẩn bị món ăn yêu thích của bạn. Sử dụng từ nối và cụ thể.</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" t="str">
-        <v>Compare two different ways of learning (online vs traditional classroom). Write 4-5 sentences.</v>
-      </c>
-      <c r="D5" t="str">
-        <v>essay</v>
-      </c>
-      <c r="E5" t="str">
-        <v>So sánh hai cách học khác nhau (trực tuyến vs lớp học truyền thống). Viết 4-5 câu.</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" t="str">
-        <v>Write a short email (60-80 words) to your manager requesting time off for a family emergency.</v>
-      </c>
-      <c r="D6" t="str">
-        <v>essay</v>
-      </c>
-      <c r="E6" t="str">
-        <v>Viết email ngắn (60-80 từ) cho quản lý để xin nghỉ phép vì việc khẩn cấp gia đình.</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" t="str">
-        <v>Essay Topic: "The role of social media in modern communication" - Write a 150-200 word essay discussing both positive and negative aspects. Include your personal opinion with supporting examples.</v>
-      </c>
-      <c r="D7" t="str">
-        <v>essay</v>
-      </c>
-      <c r="E7" t="str">
-        <v>Chủ đề luận: "Vai trò của mạng xã hội trong giao tiếp hiện đại" - Viết bài luận 150-200 từ thảo luận cả mặt tích cực và tiêu cực. Bao gồm ý kiến cá nhân với ví dụ hỗ trợ.</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" t="str">
-        <v>Essay Topic: "Should all students be required to learn coding in school?" - Write a 180-220 word argumentative essay. Present your position clearly with at least 3 supporting points and relevant examples.</v>
-      </c>
-      <c r="D8" t="str">
-        <v>essay</v>
-      </c>
-      <c r="E8" t="str">
-        <v>Chủ đề luận: "Có nên bắt buộc tất cả học sinh học lập trình ở trường không?" - Viết bài luận lập luận 180-220 từ. Trình bày quan điểm rõ ràng với ít nhất 3 điểm hỗ trợ và ví dụ phù hợp.</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" t="str">
-        <v>Essay Topic: "Describe a significant challenge you have overcome and explain how it changed you" - Write a 200-250 word personal narrative essay with specific details and reflection on the experience.</v>
-      </c>
-      <c r="D9" t="str">
-        <v>essay</v>
-      </c>
-      <c r="E9" t="str">
-        <v>Chủ đề luận: "Mô tả một thách thức quan trọng mà bạn đã vượt qua và giải thích nó đã thay đổi bạn như thế nào" - Viết bài luận tự sự cá nhân 200-250 từ với chi tiết cụ thể và suy ngẫm về trải nghiệm.</v>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E9"/>
+    <ignoredError sqref="A1:E1 A3:C9 A2:C2 E2 E3:E9" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>question_number</v>
-      </c>
-      <c r="B1" t="str">
-        <v>content</v>
-      </c>
-      <c r="C1" t="str">
-        <v>is_correct</v>
-      </c>
-      <c r="D1" t="str">
-        <v>explanation</v>
-      </c>
-      <c r="E1" t="str">
-        <v>vietnamese_translation</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v/>
-      </c>
-      <c r="B2" t="str">
-        <v>(Không có đáp án chuẩn cho Writing Test - đánh giá dựa trên tiêu chí)</v>
-      </c>
-      <c r="C2" t="str">
-        <v/>
-      </c>
-      <c r="D2" t="str">
-        <v/>
-      </c>
-      <c r="E2" t="str">
-        <v/>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
+    <ignoredError sqref="A1:E2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>